--- a/hebrewOutputs/hebrew82Comperation_8_Common_alpha=0.26.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_8_Common_alpha=0.26.xlsx
@@ -127,6 +127,9 @@
     <t>bc</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>כאבה לו הבטן אז הבאנו אותו לפה ובטח הוא קצת התייבש.</t>
   </si>
   <si>
@@ -152,9 +155,6 @@
   </si>
   <si>
     <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>כאבי בטן קצת בחילות,</t>
@@ -786,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -814,7 +814,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -842,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -940,7 +940,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1052,7 +1052,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1441,7 +1441,7 @@
         <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1497,10 +1497,10 @@
         <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1595,7 +1595,7 @@
         <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -1637,7 +1637,7 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1679,7 +1679,7 @@
         <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1707,7 +1707,7 @@
         <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2018,7 +2018,7 @@
         <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2046,7 +2046,7 @@
         <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2158,7 +2158,7 @@
         <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
